--- a/fipe.xlsx
+++ b/fipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="502">
   <si>
     <t>MARCA</t>
   </si>
@@ -558,18 +558,726 @@
     <t>101</t>
   </si>
   <si>
+    <t>750 VIRAGO</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>AXIS 90</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>BW'S 50</t>
+  </si>
+  <si>
+    <t>3062</t>
+  </si>
+  <si>
+    <t>CRYPTON 100</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>DT 180-Z TRAIL</t>
+  </si>
+  <si>
+    <t>3064</t>
+  </si>
+  <si>
+    <t>DT 200</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>DT 200 R</t>
+  </si>
+  <si>
+    <t>3066</t>
+  </si>
+  <si>
+    <t>FAZER 600/ FZ6 S</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>FLUO 125 ABS</t>
+  </si>
+  <si>
+    <t>9777</t>
+  </si>
+  <si>
     <t>FZ25 250 FAZER CAPITÃ MARVEL FLEX</t>
   </si>
   <si>
+    <t>9240</t>
+  </si>
+  <si>
+    <t>FZ25 250 FAZER FLEX</t>
+  </si>
+  <si>
+    <t>8143</t>
+  </si>
+  <si>
+    <t>FZ25 250 FAZER PANTERA NEGRA FLEX</t>
+  </si>
+  <si>
+    <t>9241</t>
+  </si>
+  <si>
+    <t>FZ6 N</t>
+  </si>
+  <si>
+    <t>4571</t>
+  </si>
+  <si>
+    <t>FZR 1000</t>
+  </si>
+  <si>
+    <t>3068</t>
+  </si>
+  <si>
+    <t>FZR 600</t>
+  </si>
+  <si>
+    <t>3069</t>
+  </si>
+  <si>
+    <t>JOG 50</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>JOG TEEN 50</t>
+  </si>
+  <si>
+    <t>3071</t>
+  </si>
+  <si>
+    <t>MAJESTY YP 250</t>
+  </si>
+  <si>
+    <t>3072</t>
+  </si>
+  <si>
+    <t>MT-01 1.670cc</t>
+  </si>
+  <si>
+    <t>4211</t>
+  </si>
+  <si>
+    <t>MT-03 321 ABS Homem de Ferro</t>
+  </si>
+  <si>
+    <t>9638</t>
+  </si>
+  <si>
+    <t>MT-03 321/ABS</t>
+  </si>
+  <si>
+    <t>7527</t>
+  </si>
+  <si>
+    <t>MT-03 660cc</t>
+  </si>
+  <si>
+    <t>4593</t>
+  </si>
+  <si>
+    <t>MT-07/MT-07 ABS 689cc</t>
+  </si>
+  <si>
+    <t>7145</t>
+  </si>
+  <si>
+    <t>MT-09 850cc/ABS</t>
+  </si>
+  <si>
+    <t>7064</t>
+  </si>
+  <si>
+    <t>MT-09 TRACER</t>
+  </si>
+  <si>
+    <t>7470</t>
+  </si>
+  <si>
+    <t>MT-09 TRACER 900 GT</t>
+  </si>
+  <si>
+    <t>8804</t>
+  </si>
+  <si>
+    <t>NEO AT 115cc</t>
+  </si>
+  <si>
+    <t>3073</t>
+  </si>
+  <si>
+    <t>NEO AUTOMATIC 115cc</t>
+  </si>
+  <si>
+    <t>4378</t>
+  </si>
+  <si>
+    <t>NEO AUTOMATIC 125cc</t>
+  </si>
+  <si>
+    <t>7786</t>
+  </si>
+  <si>
+    <t>NMAX 160</t>
+  </si>
+  <si>
+    <t>7528</t>
+  </si>
+  <si>
+    <t>NMAX HOMEM ARANHA 160 ABS</t>
+  </si>
+  <si>
+    <t>9670</t>
+  </si>
+  <si>
+    <t>NMAX STAR WARS 160 ABS</t>
+  </si>
+  <si>
+    <t>9203</t>
+  </si>
+  <si>
+    <t>RD 135</t>
+  </si>
+  <si>
+    <t>3074</t>
+  </si>
+  <si>
+    <t>RD 350 LC/ R</t>
+  </si>
+  <si>
+    <t>3075</t>
+  </si>
+  <si>
+    <t>RDZ 125</t>
+  </si>
+  <si>
+    <t>3076</t>
+  </si>
+  <si>
+    <t>RDZ 135</t>
+  </si>
+  <si>
+    <t>3077</t>
+  </si>
+  <si>
+    <t>ROYAL STAR 1300</t>
+  </si>
+  <si>
+    <t>3078</t>
+  </si>
+  <si>
+    <t>T115 CRYPTON ED</t>
+  </si>
+  <si>
+    <t>5163</t>
+  </si>
+  <si>
+    <t>T115 CRYPTON ED PENELOPE</t>
+  </si>
+  <si>
+    <t>6477</t>
+  </si>
+  <si>
+    <t>T115 CRYPTON K</t>
+  </si>
+  <si>
+    <t>5164</t>
+  </si>
+  <si>
+    <t>TDM 225</t>
+  </si>
+  <si>
+    <t>3079</t>
+  </si>
+  <si>
+    <t>TDM 850</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>TDM 900</t>
+  </si>
+  <si>
+    <t>3081</t>
+  </si>
+  <si>
+    <t>TDR 180</t>
+  </si>
+  <si>
+    <t>3082</t>
+  </si>
+  <si>
+    <t>TMAX 530</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>TRX 850</t>
+  </si>
+  <si>
+    <t>3083</t>
+  </si>
+  <si>
+    <t>TT-R 125 E</t>
+  </si>
+  <si>
+    <t>4483</t>
+  </si>
+  <si>
+    <t>TT-R 125 LE</t>
+  </si>
+  <si>
+    <t>4484</t>
+  </si>
+  <si>
+    <t>TT-R 125 LWE</t>
+  </si>
+  <si>
+    <t>7177</t>
+  </si>
+  <si>
+    <t>TT-R 230</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>V-MAX 1200</t>
+  </si>
+  <si>
+    <t>3084</t>
+  </si>
+  <si>
+    <t>V-MAX 1700</t>
+  </si>
+  <si>
+    <t>6678</t>
+  </si>
+  <si>
+    <t>WR 200</t>
+  </si>
+  <si>
+    <t>3085</t>
+  </si>
+  <si>
+    <t>WR 426 F</t>
+  </si>
+  <si>
+    <t>3086</t>
+  </si>
+  <si>
+    <t>WR 450 F</t>
+  </si>
+  <si>
+    <t>9782</t>
+  </si>
+  <si>
+    <t>XJ 600</t>
+  </si>
+  <si>
+    <t>3087</t>
+  </si>
+  <si>
+    <t>XJ6 F</t>
+  </si>
+  <si>
+    <t>5165</t>
+  </si>
+  <si>
+    <t>XJ6 N SP</t>
+  </si>
+  <si>
+    <t>6764</t>
+  </si>
+  <si>
+    <t>XJ6 N/ABS</t>
+  </si>
+  <si>
+    <t>5166</t>
+  </si>
+  <si>
+    <t>XJR 1200</t>
+  </si>
+  <si>
+    <t>3088</t>
+  </si>
+  <si>
+    <t>XMAX 250 ABS</t>
+  </si>
+  <si>
+    <t>9034</t>
+  </si>
+  <si>
+    <t>XT 1200 Z  SUPER TÉNÉRÉ/ DX</t>
+  </si>
+  <si>
+    <t>5523</t>
+  </si>
+  <si>
+    <t>XT 1200 Z S.TÉNÉRÉ 60th ANINIVERSARY</t>
+  </si>
+  <si>
+    <t>7471</t>
+  </si>
+  <si>
+    <t>XT 225</t>
+  </si>
+  <si>
+    <t>3091</t>
+  </si>
+  <si>
+    <t>XT 600 E</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>XT 600 Z TENERE</t>
+  </si>
+  <si>
+    <t>3093</t>
+  </si>
+  <si>
+    <t>XT 660 R</t>
+  </si>
+  <si>
+    <t>3094</t>
+  </si>
+  <si>
+    <t>XT 660Z TÉNÉRÉ</t>
+  </si>
+  <si>
+    <t>5738</t>
+  </si>
+  <si>
+    <t>XTZ 125 E</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>XTZ 125 K</t>
+  </si>
+  <si>
+    <t>3096</t>
+  </si>
+  <si>
+    <t>XTZ 125 XE</t>
+  </si>
+  <si>
+    <t>4486</t>
+  </si>
+  <si>
+    <t>XTZ 125 XK</t>
+  </si>
+  <si>
+    <t>4487</t>
+  </si>
+  <si>
+    <t>XTZ 150  CROSSER E/FLEX</t>
+  </si>
+  <si>
+    <t>6765</t>
+  </si>
+  <si>
+    <t>XTZ 150  CROSSER ED /FLEX</t>
+  </si>
+  <si>
+    <t>6766</t>
+  </si>
+  <si>
+    <t>XTZ 150 CROSSER S FLEX</t>
+  </si>
+  <si>
+    <t>8190</t>
+  </si>
+  <si>
+    <t>XTZ 150 CROSSER Z FLEX</t>
+  </si>
+  <si>
+    <t>8191</t>
+  </si>
+  <si>
+    <t>XTZ 250 LANDER 249cc/LANDER BLUEFLEX/ABS</t>
+  </si>
+  <si>
+    <t>4195</t>
+  </si>
+  <si>
+    <t>XTZ 250 LANDER CAPITÃO AMÉRICA FLEX ABS</t>
+  </si>
+  <si>
+    <t>9242</t>
+  </si>
+  <si>
+    <t>XTZ 250 TENERE/TENERE BLUEFLEX</t>
+  </si>
+  <si>
+    <t>5442</t>
+  </si>
+  <si>
+    <t>XTZ 250X</t>
+  </si>
+  <si>
+    <t>4658</t>
+  </si>
+  <si>
+    <t>XTZ 750 S TENERE</t>
+  </si>
+  <si>
+    <t>3097</t>
+  </si>
+  <si>
+    <t>XV 1100 VIRAGO</t>
+  </si>
+  <si>
+    <t>3098</t>
+  </si>
+  <si>
+    <t>XV 250 VIRAGO</t>
+  </si>
+  <si>
+    <t>3099</t>
+  </si>
+  <si>
+    <t>XV 535 S VIRAGO</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>XVS 1100 DRAG STAR</t>
+  </si>
+  <si>
+    <t>3089</t>
+  </si>
+  <si>
+    <t>XVS 650 DRAG STAR</t>
+  </si>
+  <si>
+    <t>3090</t>
+  </si>
+  <si>
+    <t>XVS 950 MIDNIGHT STAR</t>
+  </si>
+  <si>
+    <t>4956</t>
+  </si>
+  <si>
+    <t>YBR 125 E</t>
+  </si>
+  <si>
+    <t>3101</t>
+  </si>
+  <si>
+    <t>YBR 125 ED</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>YBR 125 FACTOR E</t>
+  </si>
+  <si>
+    <t>4742</t>
+  </si>
+  <si>
+    <t>YBR 125 FACTOR ED/FACTOR EDITION</t>
+  </si>
+  <si>
+    <t>4743</t>
+  </si>
+  <si>
+    <t>YBR 125 FACTOR K/ FACTOR K1</t>
+  </si>
+  <si>
+    <t>4744</t>
+  </si>
+  <si>
+    <t>YBR 125 FACTOR PRO E</t>
+  </si>
+  <si>
+    <t>6568</t>
+  </si>
+  <si>
+    <t>YBR 125 FACTOR PRO K</t>
+  </si>
+  <si>
+    <t>6569</t>
+  </si>
+  <si>
+    <t>YBR 125 K</t>
+  </si>
+  <si>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>YBR 125i FACTOR ED/FLEX</t>
+  </si>
+  <si>
+    <t>7648</t>
+  </si>
+  <si>
+    <t>YBR 150 FACTOR E/FLEX</t>
+  </si>
+  <si>
+    <t>7387</t>
+  </si>
+  <si>
+    <t>YBR 150 FACTOR ED/FLEX</t>
+  </si>
+  <si>
+    <t>7388</t>
+  </si>
+  <si>
+    <t>YFM 250 BRUIN 230cc</t>
+  </si>
+  <si>
+    <t>4080</t>
+  </si>
+  <si>
+    <t>YFM 350 GRIZZLY 350cc</t>
+  </si>
+  <si>
+    <t>4196</t>
+  </si>
+  <si>
+    <t>YFM 660R 660cc</t>
+  </si>
+  <si>
+    <t>4081</t>
+  </si>
+  <si>
+    <t>YFM 700R 686cc</t>
+  </si>
+  <si>
+    <t>4582</t>
+  </si>
+  <si>
+    <t>YFM 80 79cc</t>
+  </si>
+  <si>
+    <t>4082</t>
+  </si>
+  <si>
+    <t>YFS 200 BLASTER 195cc</t>
+  </si>
+  <si>
+    <t>4083</t>
+  </si>
+  <si>
+    <t>YFZ 450/ YZ 450 F 449cc</t>
+  </si>
+  <si>
+    <t>4583</t>
+  </si>
+  <si>
+    <t>YS 150 FAZER ED/FLEX</t>
+  </si>
+  <si>
+    <t>6605</t>
+  </si>
+  <si>
+    <t>YS 150 FAZER SED/ FLEX</t>
+  </si>
+  <si>
+    <t>6606</t>
+  </si>
+  <si>
+    <t>YS 250 FAZER/ FAZER L. EDITION /BLUEFLEX</t>
+  </si>
+  <si>
+    <t>3871</t>
+  </si>
+  <si>
+    <t>YZ 125</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>YZ 250</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>YZ 250 F 250cc</t>
+  </si>
+  <si>
+    <t>8805</t>
+  </si>
+  <si>
+    <t>YZ 85 LW 85cc</t>
+  </si>
+  <si>
+    <t>8806</t>
+  </si>
+  <si>
+    <t>YZF 1000 THUNDERACE</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>YZF 600 THUNDERCAT</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>YZF 750</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>YZF R-1 1000</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>YZF R-1M 1000</t>
+  </si>
+  <si>
+    <t>7681</t>
+  </si>
+  <si>
+    <t>YZF R-3 321/ABS</t>
+  </si>
+  <si>
+    <t>7338</t>
+  </si>
+  <si>
+    <t>YZF R-6 600</t>
+  </si>
+  <si>
+    <t>3943</t>
+  </si>
+  <si>
     <t>R$ 22.539,00</t>
   </si>
   <si>
     <t>Gasolina</t>
   </si>
   <si>
-    <t>FZ25 250 FAZER FLEX</t>
-  </si>
-  <si>
     <t>R$ 19.268,00</t>
   </si>
   <si>
@@ -582,21 +1290,12 @@
     <t>R$ 21.701,00</t>
   </si>
   <si>
-    <t>FZ25 250 FAZER PANTERA NEGRA FLEX</t>
-  </si>
-  <si>
     <t>R$ 21.900,00</t>
   </si>
   <si>
-    <t>MT-03 321 ABS Homem de Ferro</t>
-  </si>
-  <si>
     <t>R$ 30.012,00</t>
   </si>
   <si>
-    <t>MT-03 321/ABS</t>
-  </si>
-  <si>
     <t>R$ 24.628,00</t>
   </si>
   <si>
@@ -609,9 +1308,6 @@
     <t>R$ 29.845,00</t>
   </si>
   <si>
-    <t>MT-07/MT-07 ABS 689cc</t>
-  </si>
-  <si>
     <t>R$ 39.821,00</t>
   </si>
   <si>
@@ -624,9 +1320,6 @@
     <t>R$ 45.734,00</t>
   </si>
   <si>
-    <t>MT-09 850cc/ABS</t>
-  </si>
-  <si>
     <t>R$ 54.389,00</t>
   </si>
   <si>
@@ -636,9 +1329,6 @@
     <t>R$ 58.898,00</t>
   </si>
   <si>
-    <t>MT-09 TRACER 900 GT</t>
-  </si>
-  <si>
     <t>R$ 60.857,00</t>
   </si>
   <si>
@@ -648,9 +1338,6 @@
     <t>R$ 66.315,00</t>
   </si>
   <si>
-    <t>NEO AUTOMATIC 125cc</t>
-  </si>
-  <si>
     <t>R$ 10.441,00</t>
   </si>
   <si>
@@ -663,9 +1350,6 @@
     <t>R$ 11.729,00</t>
   </si>
   <si>
-    <t>NMAX 160</t>
-  </si>
-  <si>
     <t>R$ 15.071,00</t>
   </si>
   <si>
@@ -678,24 +1362,15 @@
     <t>R$ 17.621,00</t>
   </si>
   <si>
-    <t>NMAX HOMEM ARANHA 160 ABS</t>
-  </si>
-  <si>
     <t>R$ 18.298,00</t>
   </si>
   <si>
-    <t>NMAX STAR WARS 160 ABS</t>
-  </si>
-  <si>
     <t>R$ 17.290,00</t>
   </si>
   <si>
     <t>R$ 18.193,00</t>
   </si>
   <si>
-    <t>TT-R 230</t>
-  </si>
-  <si>
     <t>R$ 15.890,00</t>
   </si>
   <si>
@@ -708,39 +1383,24 @@
     <t>R$ 17.611,00</t>
   </si>
   <si>
-    <t>WR 450 F</t>
-  </si>
-  <si>
     <t>R$ 66.641,00</t>
   </si>
   <si>
-    <t>XJ6 N/ABS</t>
-  </si>
-  <si>
     <t>R$ 44.436,00</t>
   </si>
   <si>
-    <t>XMAX 250 ABS</t>
-  </si>
-  <si>
     <t>R$ 28.439,00</t>
   </si>
   <si>
     <t>R$ 29.242,00</t>
   </si>
   <si>
-    <t>XT 1200 Z  SUPER TÉNÉRÉ/ DX</t>
-  </si>
-  <si>
     <t>R$ 78.195,00</t>
   </si>
   <si>
     <t>R$ 80.200,00</t>
   </si>
   <si>
-    <t>XTZ 150 CROSSER S FLEX</t>
-  </si>
-  <si>
     <t>R$ 15.583,00</t>
   </si>
   <si>
@@ -753,9 +1413,6 @@
     <t>R$ 16.989,00</t>
   </si>
   <si>
-    <t>XTZ 150 CROSSER Z FLEX</t>
-  </si>
-  <si>
     <t>R$ 15.822,00</t>
   </si>
   <si>
@@ -768,9 +1425,6 @@
     <t>R$ 17.289,00</t>
   </si>
   <si>
-    <t>XTZ 250 LANDER 249cc/LANDER BLUEFLEX/ABS</t>
-  </si>
-  <si>
     <t>R$ 20.115,00</t>
   </si>
   <si>
@@ -783,24 +1437,15 @@
     <t>R$ 22.948,00</t>
   </si>
   <si>
-    <t>XTZ 250 LANDER CAPITÃO AMÉRICA FLEX ABS</t>
-  </si>
-  <si>
     <t>R$ 20.869,00</t>
   </si>
   <si>
     <t>R$ 21.459,00</t>
   </si>
   <si>
-    <t>XTZ 250 TENERE/TENERE BLUEFLEX</t>
-  </si>
-  <si>
     <t>R$ 22.498,00</t>
   </si>
   <si>
-    <t>YBR 125i FACTOR ED/FLEX</t>
-  </si>
-  <si>
     <t>R$ 11.242,00</t>
   </si>
   <si>
@@ -813,9 +1458,6 @@
     <t>R$ 12.781,00</t>
   </si>
   <si>
-    <t>YBR 150 FACTOR ED/FLEX</t>
-  </si>
-  <si>
     <t>R$ 12.278,00</t>
   </si>
   <si>
@@ -828,18 +1470,12 @@
     <t>R$ 13.804,00</t>
   </si>
   <si>
-    <t>YFZ 450/ YZ 450 F 449cc</t>
-  </si>
-  <si>
     <t>R$ 58.521,00</t>
   </si>
   <si>
     <t>R$ 68.477,00</t>
   </si>
   <si>
-    <t>YS 150 FAZER SED/ FLEX</t>
-  </si>
-  <si>
     <t>R$ 13.361,00</t>
   </si>
   <si>
@@ -852,9 +1488,6 @@
     <t>R$ 15.191,00</t>
   </si>
   <si>
-    <t>YZ 250</t>
-  </si>
-  <si>
     <t>R$ 49.938,00</t>
   </si>
   <si>
@@ -864,9 +1497,6 @@
     <t>R$ 61.867,00</t>
   </si>
   <si>
-    <t>YZ 250 F 250cc</t>
-  </si>
-  <si>
     <t>R$ 54.304,00</t>
   </si>
   <si>
@@ -876,16 +1506,10 @@
     <t>R$ 67.176,00</t>
   </si>
   <si>
-    <t>YZ 85 LW 85cc</t>
-  </si>
-  <si>
     <t>R$ 43.502,00</t>
   </si>
   <si>
     <t>R$ 46.010,00</t>
-  </si>
-  <si>
-    <t>YZF R-3 321/ABS</t>
   </si>
   <si>
     <t>R$ 25.250,00</t>
@@ -1962,12 +2586,973 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>278</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>286</v>
+      </c>
+      <c r="B55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>304</v>
+      </c>
+      <c r="B64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>336</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>338</v>
+      </c>
+      <c r="B81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>350</v>
+      </c>
+      <c r="B87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>352</v>
+      </c>
+      <c r="B88" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>364</v>
+      </c>
+      <c r="B94" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>366</v>
+      </c>
+      <c r="B95" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>368</v>
+      </c>
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>370</v>
+      </c>
+      <c r="B97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>372</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>374</v>
+      </c>
+      <c r="B99" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>378</v>
+      </c>
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>380</v>
+      </c>
+      <c r="B102" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>384</v>
+      </c>
+      <c r="B104" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>386</v>
+      </c>
+      <c r="B105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>392</v>
+      </c>
+      <c r="B108" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>396</v>
+      </c>
+      <c r="B110" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>398</v>
+      </c>
+      <c r="B111" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>402</v>
+      </c>
+      <c r="B113" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>404</v>
+      </c>
+      <c r="B114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>406</v>
+      </c>
+      <c r="B115" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>410</v>
+      </c>
+      <c r="B117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>412</v>
+      </c>
+      <c r="B118" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>414</v>
+      </c>
+      <c r="B119" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>416</v>
+      </c>
+      <c r="B120" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1982,13 +3567,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="D1">
         <v>2021</v>
@@ -1996,13 +3581,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="D2">
         <v>2022</v>
